--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.132</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.847</v>
+        <v>17.37</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.241</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.001</v>
+        <v>12.524</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.289</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.454</v>
+        <v>9.292</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.04112107799965</v>
+        <v>7.866343358018799</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.54775352676982</v>
+        <v>20.67250943656488</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.96397755044898</v>
+        <v>22.52407900409368</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12.49311624095545</v>
+        <v>-3.721082962100478</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.40736361968595</v>
+        <v>24.73668199340604</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.05247445874514</v>
+        <v>26.75042414559364</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.17893747730989</v>
+        <v>1.680604864678674</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.27218295780707</v>
+        <v>39.87321173813534</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.65477170654688</v>
+        <v>40.24604994968585</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.69583309876968</v>
+        <v>41.27608122259885</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.61697157815658</v>
+        <v>44.47314766349923</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.15319374478457</v>
+        <v>46.99580005675095</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.19791762732005</v>
+        <v>18.19250499174361</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.85591344581166</v>
+        <v>41.91566095936305</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>35.09908639523655</v>
+        <v>47.69967037047211</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.82613846829051</v>
+        <v>19.52562531485832</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.50057686005174</v>
+        <v>39.67480790355027</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.95185456027581</v>
+        <v>43.97010001011024</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>15.13286261778585</v>
+        <v>8.392965189237362</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.22605213822564</v>
+        <v>36.79831302128817</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.90760971023863</v>
+        <v>42.66983273509025</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>18.87361127471338</v>
+        <v>10.64133409696682</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.13303808979508</v>
+        <v>52.95716990528005</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32.54891664624388</v>
+        <v>60.12970163835588</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31.68406976788519</v>
+        <v>58.01908395825764</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.6919481581651</v>
+        <v>67.15030473068934</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>37.25257957798664</v>
+        <v>71.96765464524138</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.11103589403458</v>
+        <v>26.56937550942989</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>34.94851771634266</v>
+        <v>66.69226320663871</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>38.21483815540716</v>
+        <v>71.93237569487123</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24.25826713833073</v>
+        <v>26.18750926436597</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>34.94370847682037</v>
+        <v>49.57521393415242</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.41788787340617</v>
+        <v>55.88387712122629</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>21.80313694470923</v>
+        <v>14.68476680468568</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>32.91043088575496</v>
+        <v>49.07317838428646</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.61778173581146</v>
+        <v>55.44130251728178</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25.53460634339097</v>
+        <v>19.90118248656963</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35.80847800937241</v>
+        <v>68.85234035387761</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>39.2461177914079</v>
+        <v>79.46492307030788</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38.51029808711121</v>
+        <v>84.18569408216196</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>42.52743477422145</v>
+        <v>93.90189341566169</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>44.09382007622314</v>
+        <v>100.9344538315343</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.90382271693362</v>
+        <v>39.77236676510164</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.7456846919485</v>
+        <v>86.40932939584566</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>45.03159582748449</v>
+        <v>94.23031349905317</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>14.39429121202861</v>
+        <v>12.17248212173691</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.04901511295226</v>
+        <v>39.88821008270172</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.45337598494624</v>
+        <v>43.71978160220083</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>11.84921828791541</v>
+        <v>4.683103029885462</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22.9191586394738</v>
+        <v>46.62287356305781</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.55344560203617</v>
+        <v>50.11901498100035</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>15.55568323469963</v>
+        <v>11.6398528011038</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.7930365414489</v>
+        <v>68.18304112167154</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.1649608626672</v>
+        <v>69.36147172765159</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.16910097280385</v>
+        <v>65.33316159566745</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>32.1389481427833</v>
+        <v>71.96915329120112</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>33.65559482754318</v>
+        <v>73.28298517137394</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>21.56632620960929</v>
+        <v>26.87575992490305</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.36651217855969</v>
+        <v>66.85777101111644</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.59737038128134</v>
+        <v>73.70490303486498</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>17.10737712231563</v>
+        <v>10.14424327935273</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.93038183751795</v>
+        <v>42.42869940064507</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.36891145457105</v>
+        <v>47.17452586844273</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>14.41795458089551</v>
+        <v>2.859528559141172</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.66725959168598</v>
+        <v>42.21425323435746</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.33701818108398</v>
+        <v>47.99846243876395</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>18.18012994210174</v>
+        <v>6.566897089815416</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.58402881770786</v>
+        <v>64.37034203804247</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>31.98834990622837</v>
+        <v>70.65177553568959</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.08973333702576</v>
+        <v>64.96021615209766</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>35.14601245701044</v>
+        <v>76.86646583774949</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>36.68649305799775</v>
+        <v>79.17870043687732</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>24.41342548806902</v>
+        <v>21.93246442064727</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>34.39304853095398</v>
+        <v>75.68136787930096</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.646489772104</v>
+        <v>80.16619204863123</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23.79576040103532</v>
+        <v>14.89596192091004</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>34.62909678492895</v>
+        <v>50.88206824726943</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>38.09000906667143</v>
+        <v>57.82244744423964</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>21.34667207214597</v>
+        <v>6.19656327534479</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>32.60937180822117</v>
+        <v>51.64756362430832</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.30432069072617</v>
+        <v>58.29702054005908</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.10382047522895</v>
+        <v>12.30120114216026</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>35.5216447923051</v>
+        <v>77.1675041244243</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>38.94710749163461</v>
+        <v>86.96527802913833</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>38.17995256616929</v>
+        <v>87.54933068130389</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>42.2455100233668</v>
+        <v>100.5360190962763</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>43.79146624759423</v>
+        <v>105.035213368025</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31.47002207363586</v>
+        <v>31.66970407960232</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>41.45332052592255</v>
+        <v>92.34580079148249</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>44.72568897409171</v>
+        <v>100.1164108571307</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>14.19686353142245</v>
+        <v>17.83391688671638</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.85366262605541</v>
+        <v>40.19315059278738</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.25550030638493</v>
+        <v>41.55307897045149</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>11.64322702586554</v>
+        <v>5.710400052406545</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.71513163036419</v>
+        <v>44.00949119667733</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26.34660616211774</v>
+        <v>44.84925606970539</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.35148869469341</v>
+        <v>14.26243039961854</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.59065108094083</v>
+        <v>65.88006327261159</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.95992659390075</v>
+        <v>64.53236282072497</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>27.97698055920896</v>
+        <v>64.86071502094983</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.94756998519218</v>
+        <v>69.54542882723486</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.46350491574674</v>
+        <v>68.90997854293853</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21.37534275817811</v>
+        <v>31.31947384040457</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>31.17693950766631</v>
+        <v>64.61928137871617</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>34.40563964789332</v>
+        <v>69.15647800241986</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.93361722703862</v>
+        <v>22.59700858762126</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>27.75882088853294</v>
+        <v>50.35873252206882</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>31.19488573535017</v>
+        <v>52.60366982333666</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>14.23603947297591</v>
+        <v>10.56507008072491</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.4874284985013</v>
+        <v>47.36163706718632</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.15444041646432</v>
+        <v>50.46555013734481</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18.00005345194925</v>
+        <v>16.33688158553212</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.40587548858598</v>
+        <v>70.14957596206456</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>31.80760830012329</v>
+        <v>73.8091836562525</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>30.92165083097859</v>
+        <v>71.74558403217277</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>34.97866512755404</v>
+        <v>81.22377539744527</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>36.51850359785418</v>
+        <v>81.6484256762749</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.24622016768281</v>
+        <v>33.00033347263711</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>34.22736146163107</v>
+        <v>80.50734560286129</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>37.47870290553706</v>
+        <v>82.92852556540508</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.63265982219486</v>
+        <v>26.35682370792229</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>34.46821908244247</v>
+        <v>58.00998128767041</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.92671076311036</v>
+        <v>62.33453835828287</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>21.17551572110361</v>
+        <v>12.93465258143467</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.44032517778954</v>
+        <v>56.14336142294168</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.13259194479618</v>
+        <v>59.99716538613605</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.93451198336458</v>
+        <v>21.06141798157747</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>35.35428639041821</v>
+        <v>82.12858430881782</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>38.77721272947068</v>
+        <v>89.2050233603514</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>38.02247714251397</v>
+        <v>93.57109093891329</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>42.08887909647565</v>
+        <v>104.2375660751956</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>43.63414451869895</v>
+        <v>106.7111574121634</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>31.31333941094461</v>
+        <v>41.82887427610602</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>41.29817693427994</v>
+        <v>96.39678819958148</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>44.56848447681648</v>
+        <v>101.9632500603878</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>13.31488929680829</v>
+        <v>13.67726855717133</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>23.80580238268196</v>
+        <v>23.61368010721349</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.21844961016594</v>
+        <v>25.24230658754816</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>10.72916803005801</v>
+        <v>1.940725198030055</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>21.6268261315954</v>
+        <v>27.73996523429453</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.26817719521954</v>
+        <v>29.94850254930795</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.40113568643089</v>
+        <v>6.104300225216225</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.47898826604477</v>
+        <v>40.82223433543986</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>27.85805875349904</v>
+        <v>41.00236167382069</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>26.89150199652274</v>
+        <v>42.21618214671825</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>30.8086495542502</v>
+        <v>43.86228484991925</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.34250798049689</v>
+        <v>47.95994170525462</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>20.41025262383273</v>
+        <v>27.87114651644577</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.05429462341748</v>
+        <v>48.25247349626365</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>33.2931669000946</v>
+        <v>53.16441234149157</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>16.11909080372516</v>
+        <v>20.69356693926305</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.77799980183967</v>
+        <v>37.48836193824319</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.2256781417166</v>
+        <v>41.37979929419315</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>13.38838442539696</v>
+        <v>10.01978490788956</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.46517210877754</v>
+        <v>35.36503255382134</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.14293469198612</v>
+        <v>41.23132353530293</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17.11549519834042</v>
+        <v>10.5463737209826</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>27.3597067320479</v>
+        <v>48.89325227752049</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.77203661064997</v>
+        <v>55.67885976296027</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.89920646860146</v>
+        <v>53.39800811885466</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.90321616727871</v>
+        <v>60.99354524310961</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>35.46143125208037</v>
+        <v>67.13981715401046</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>23.34256893547298</v>
+        <v>30.40149449412225</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>33.1662329781125</v>
+        <v>66.92506256750544</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>36.42824033279348</v>
+        <v>70.87784848218779</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22.65309893076254</v>
+        <v>28.98796939996298</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.32391968031304</v>
+        <v>49.04589421059875</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>36.7944881149167</v>
+        <v>54.8167222352172</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>20.16123749733788</v>
+        <v>16.76977669719527</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.2530679084266</v>
+        <v>48.13062625095681</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>34.95659474553484</v>
+        <v>54.31721544965673</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.88030504645905</v>
+        <v>20.61102605155294</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>34.13983506424266</v>
+        <v>65.61969174018525</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>37.57389960400777</v>
+        <v>75.71487337808539</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>36.8301022566221</v>
+        <v>79.72382271193557</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>40.84376959181779</v>
+        <v>87.96802220835856</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>42.40767501937603</v>
+        <v>96.24735096031812</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>30.23915490202425</v>
+        <v>44.09239050363301</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>40.06798870681116</v>
+        <v>87.06216248335751</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>43.34958370583293</v>
+        <v>93.43651909685777</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>16.46023802376781</v>
+        <v>19.8789571752299</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.9731780030489</v>
+        <v>39.76886845785897</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.38260426281538</v>
+        <v>40.08592651456981</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>13.92859294142035</v>
+        <v>7.387504753390989</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.84979120157287</v>
+        <v>44.04561421516281</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.48793388431877</v>
+        <v>45.35125740187421</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.61135876538228</v>
+        <v>15.64621312258543</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.71108275578595</v>
+        <v>63.22818450537697</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31.08714120440295</v>
+        <v>61.93081908169397</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>30.11601750029569</v>
+        <v>59.51394570040388</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>34.03859271410462</v>
+        <v>64.00986470786252</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35.56947240841287</v>
+        <v>65.5463595673579</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.60755489143144</v>
+        <v>32.87018147212943</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.26966737551164</v>
+        <v>61.45412479322722</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.50569289071414</v>
+        <v>65.43488505482235</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>19.32072784697815</v>
+        <v>31.42679076605591</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>30.00112915495266</v>
+        <v>57.58236460990445</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>33.44492155734939</v>
+        <v>59.39775306933537</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>16.64513667845005</v>
+        <v>19.41501773349562</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>27.74489106585588</v>
+        <v>54.95404287890717</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>31.41872372667553</v>
+        <v>59.21423039315867</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>20.38335260455554</v>
+        <v>24.2477871586395</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>30.64891393923009</v>
+        <v>74.87572328607617</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>34.05756237122846</v>
+        <v>79.41363876285793</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>33.18175981597373</v>
+        <v>76.71584214802333</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>37.19100879809183</v>
+        <v>86.90172473343678</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>38.74596875030387</v>
+        <v>90.23865268899918</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.59837738192965</v>
+        <v>43.43682744905259</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.43957112187595</v>
+        <v>87.77543012840626</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>25.71269207582361</v>
+        <v>32.44808870724624</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>36.403225057067</v>
+        <v>61.43775138348964</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>39.8704158775136</v>
+        <v>65.63097787967853</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>23.27432998690513</v>
+        <v>19.32523070996369</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>34.38725673513367</v>
+        <v>60.340055218346</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>38.08739605251668</v>
+        <v>65.36167130441812</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.00314609722813</v>
+        <v>26.7762734937045</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>37.28228754489734</v>
+        <v>83.57490460332669</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>40.71316841105043</v>
+        <v>91.93533412273639</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>39.9658170720903</v>
+        <v>95.47782576700571</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>43.98430024645405</v>
+        <v>106.3181030746474</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>45.54522389921881</v>
+        <v>111.8716809547514</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>33.34954184637741</v>
+        <v>49.36623266949162</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>43.19449972533965</v>
+        <v>99.97614619961662</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>46.47311718894627</v>
+        <v>105.3400267334775</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>12.53495903198723</v>
+        <v>10.86909145747406</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>22.99730324437699</v>
+        <v>38.80001989218304</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.34348173580689</v>
+        <v>40.00496241621271</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>9.991321792961148</v>
+        <v>-0.0767323785554872</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>20.85946473950392</v>
+        <v>43.92022018710399</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>24.43206096625883</v>
+        <v>46.78487275697215</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>13.62825485064157</v>
+        <v>9.00934657816423</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>23.67899543808069</v>
+        <v>67.42173277621113</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26.9935038381747</v>
+        <v>65.92243834937169</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>26.01294888345425</v>
+        <v>57.20317430738372</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.91302160686553</v>
+        <v>62.63141908904639</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>31.4029817182464</v>
+        <v>63.70053195910903</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>19.5411361665386</v>
+        <v>20.54965432437082</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.1579807076382</v>
+        <v>56.64818067582745</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>32.33233829455426</v>
+        <v>60.41652766286587</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>15.42224555826628</v>
+        <v>22.41324942378471</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>26.05268150537536</v>
+        <v>56.75465725789924</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.43197842782993</v>
+        <v>58.0786082712914</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>12.7373560345723</v>
+        <v>9.789426310511278</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>23.78462286880533</v>
+        <v>53.15648943703179</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>27.39154798925473</v>
+        <v>57.60829081180815</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>16.43040767937213</v>
+        <v>16.71539100855201</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>26.64749737115464</v>
+        <v>78.49444626968632</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.99335219500941</v>
+        <v>81.18713532819972</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.11039350746674</v>
+        <v>74.63799204451628</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>33.09626332233093</v>
+        <v>85.73926722107196</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>34.60964222276561</v>
+        <v>87.62623578014122</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.56496565472722</v>
+        <v>33.31629505589051</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>32.36082642838403</v>
+        <v>85.98714839536053</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>35.55695440248645</v>
+        <v>86.84305581209374</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.12666943789564</v>
+        <v>23.20126930359978</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>32.76706564238028</v>
+        <v>60.30811324444359</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>36.16931998169226</v>
+        <v>64.0539100313499</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>19.67856960442003</v>
+        <v>8.147426325151304</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>30.73875485475121</v>
+        <v>56.57816726991395</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>34.37148866125951</v>
+        <v>61.93856750668608</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>23.36723659764399</v>
+        <v>17.49815460674045</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>33.59778952689376</v>
+        <v>85.23419730193372</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>36.96540591871377</v>
+        <v>91.72495541535515</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.21083852265708</v>
+        <v>91.50089325170141</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>40.20575285694029</v>
+        <v>103.3321517618891</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>41.7247882147261</v>
+        <v>106.7264749611958</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.63099241908499</v>
+        <v>37.45680229030542</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>39.43035266529584</v>
+        <v>96.36230363911166</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>42.64605782053759</v>
+        <v>100.2374908888611</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>10.24379580199214</v>
+        <v>1.356833223312851</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>20.69189972966322</v>
+        <v>12.48197915886191</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>24.04719232991673</v>
+        <v>13.8282093321469</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>7.669061159440414</v>
+        <v>-7.877684995674979</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>18.52173167698768</v>
+        <v>18.80484486174969</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>22.1035195925697</v>
+        <v>19.62827906148003</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>11.3095209043592</v>
+        <v>-3.071917913011941</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>21.34587322855556</v>
+        <v>33.82663073930088</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.66900080553364</v>
+        <v>32.75042688214641</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>23.7136002084311</v>
+        <v>35.77966509381802</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>27.60978283636921</v>
+        <v>38.42393010942691</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.10776177131453</v>
+        <v>38.93765003889085</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>17.25971682365081</v>
+        <v>13.06831233458304</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.86600513016227</v>
+        <v>32.36153807134677</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>30.04963463193896</v>
+        <v>37.40473816063367</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>13.03993223318107</v>
+        <v>13.99418771587854</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>23.65664715192633</v>
+        <v>33.55680086349368</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.04631743237314</v>
+        <v>37.59971515375311</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>10.32249123527903</v>
+        <v>4.939814907559782</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>21.3548522698666</v>
+        <v>33.16172987152011</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>24.97235352064986</v>
+        <v>38.13686395545925</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>14.01832149904356</v>
+        <v>7.725226734647396</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>24.22153140519905</v>
+        <v>50.14534733456547</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.57728747010616</v>
+        <v>55.81155810148424</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.71741487126607</v>
+        <v>53.88228266613304</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.6994898476226</v>
+        <v>62.00711007512608</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>32.22149386655655</v>
+        <v>64.54076902271906</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>20.18944157329778</v>
+        <v>23.17732346140581</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.97534892696399</v>
+        <v>59.72811979817818</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>33.18184229969592</v>
+        <v>64.2769222060749</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>19.79865030405934</v>
+        <v>20.6785944399697</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>30.42679612414337</v>
+        <v>44.10410440986878</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>33.8387188591126</v>
+        <v>49.69019889476293</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>17.31883242156035</v>
+        <v>10.72133997470214</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.36567967025222</v>
+        <v>45.47261718849417</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>32.00826548305525</v>
+        <v>50.60486139818484</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>21.01058907757595</v>
+        <v>16.6550983508012</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>31.22871725074016</v>
+        <v>66.293123480369</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>34.60556863529759</v>
+        <v>74.81980680466556</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>33.87461365803187</v>
+        <v>80.33209744322515</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>37.86590129801508</v>
+        <v>89.40322654668925</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>39.3932213155774</v>
+        <v>93.42754086679484</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>27.31143184098341</v>
+        <v>37.02564472059477</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>37.10190131981064</v>
+        <v>80.48384187689801</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>40.32737046588088</v>
+        <v>87.57222049357382</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>14.98026676914325</v>
+        <v>-1.662725318221458</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>25.6063712712862</v>
+        <v>6.528674666403834</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.05332628050719</v>
+        <v>9.331570096347907</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>12.41555262144979</v>
+        <v>-9.89820907782838</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>23.45404729657939</v>
+        <v>13.55078488289103</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>27.13264580410286</v>
+        <v>17.06731093258866</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.12587432378725</v>
+        <v>-8.245891422545224</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>26.33394802522655</v>
+        <v>25.78671967652464</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.74740142465172</v>
+        <v>26.99455506077742</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.76221886464657</v>
+        <v>26.12320392683147</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.72775126307534</v>
+        <v>28.89555962300033</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.27355777694683</v>
+        <v>32.50742226873463</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>22.18083256444676</v>
+        <v>5.848559072988241</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>31.94864896409818</v>
+        <v>24.25854148655664</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.21946766575881</v>
+        <v>28.48291093059949</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>17.87343184193131</v>
+        <v>-0.8829160648378256</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.66926482411571</v>
+        <v>13.12244817438667</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>32.15106951818205</v>
+        <v>17.73715004781433</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>15.1634912282196</v>
+        <v>-7.622988899457379</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>26.38294654389382</v>
+        <v>14.34508750176751</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>30.09774169816788</v>
+        <v>20.95716418886461</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>18.9299231800924</v>
+        <v>-9.823342906037066</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.30606002289819</v>
+        <v>26.78095692615968</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>32.75256886759306</v>
+        <v>34.10479728845918</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>31.8637608653752</v>
+        <v>31.7193872994494</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>35.91694560348566</v>
+        <v>40.25170321332207</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>37.48717782466922</v>
+        <v>46.00016756541687</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>25.20664379579219</v>
+        <v>4.759302319539035</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>35.15586159508319</v>
+        <v>38.34130013345312</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.4496255225076</v>
+        <v>41.19799760150839</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>24.42479754869244</v>
+        <v>5.583697006269194</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>35.23183484883749</v>
+        <v>22.70788218792099</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>38.7371805729309</v>
+        <v>30.22684213725227</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>21.95528628649834</v>
+        <v>-2.390415518136802</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>33.18906340889956</v>
+        <v>25.33571395917905</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.93031734546559</v>
+        <v>33.36778539600819</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>25.71341687213148</v>
+        <v>-1.731444648412445</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>36.10424067904236</v>
+        <v>41.34591002291366</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>39.57309689935907</v>
+        <v>53.01953832027517</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>38.81447442525301</v>
+        <v>56.23092566743277</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>42.87732928622876</v>
+        <v>65.58510715929908</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>44.45346498882705</v>
+        <v>73.89422611676572</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>32.12345403622312</v>
+        <v>16.20932361677835</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>42.07725719034915</v>
+        <v>56.3051386394077</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>45.39114324524211</v>
+        <v>62.45804521534517</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>15.46079750492953</v>
+        <v>13.59809480220339</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.04283755804943</v>
+        <v>41.2847562940362</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.42137654405657</v>
+        <v>44.18785778005578</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>12.97823347322585</v>
+        <v>6.879964539276404</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>23.97101021316553</v>
+        <v>52.34005478472828</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>27.57817916356849</v>
+        <v>54.33633785722527</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.66403794355245</v>
+        <v>17.00189684180937</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.83019221906217</v>
+        <v>75.47728153973209</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>30.17685786851669</v>
+        <v>75.07015835979435</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.207879671654</v>
+        <v>70.08788493766899</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>33.14866199445821</v>
+        <v>75.40731523886321</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>34.6555368362087</v>
+        <v>75.13623368305049</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.65600260989029</v>
+        <v>35.67505016115804</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.38311388976974</v>
+        <v>70.90105740268014</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>35.59009623829966</v>
+        <v>77.98390443287376</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>18.21341032235711</v>
+        <v>7.296126990274804</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.96380083456662</v>
+        <v>39.91534181344706</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>32.37573467440406</v>
+        <v>43.02012855002921</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>15.58554315090913</v>
+        <v>-1.856067991918092</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>26.7577674942517</v>
+        <v>40.97364887433072</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30.39957229858125</v>
+        <v>44.69171116277612</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>19.32736273904352</v>
+        <v>5.024051062578469</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.66014886163669</v>
+        <v>65.17889369195272</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.03843506383656</v>
+        <v>69.06477922130834</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>32.16705848053686</v>
+        <v>63.44428901299399</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.19397685676508</v>
+        <v>73.46575546056532</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.72459575500765</v>
+        <v>74.20469150135118</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.54179071034413</v>
+        <v>24.72431344411548</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>35.4484760547312</v>
+        <v>74.29983433168066</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>38.6773465019924</v>
+        <v>77.80873939358683</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>24.83558904934112</v>
+        <v>12.76027319867815</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>35.59535581385786</v>
+        <v>48.5536321275904</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.03012379016457</v>
+        <v>54.1039069710399</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>22.44608409531844</v>
+        <v>3.136773057067348</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>33.63068717183089</v>
+        <v>51.64444013584573</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>37.29815691575917</v>
+        <v>56.3795545877144</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.1820834985034</v>
+        <v>12.33188107414755</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.52783099866361</v>
+        <v>78.94815811512755</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>39.92772696274624</v>
+        <v>86.66008739111651</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>39.18634174168079</v>
+        <v>87.77287253215765</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>43.22212385173932</v>
+        <v>98.88969855071765</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>44.75828606227429</v>
+        <v>101.073504833544</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>32.52731897622795</v>
+        <v>35.83292830413465</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>42.43691141353025</v>
+        <v>92.10442054407524</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>45.6851679343511</v>
+        <v>98.92320229472155</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>8.751558543722442</v>
+        <v>2.643887364252141</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>19.23302974279303</v>
+        <v>11.11993898478245</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.60388147276399</v>
+        <v>15.00554765880439</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>6.12009192760663</v>
+        <v>-5.806426414175984</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>17.00925443259502</v>
+        <v>14.85604401113675</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>20.60721318922663</v>
+        <v>18.26680684357702</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>9.770417060092964</v>
+        <v>-3.872860860050661</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>19.84041152933425</v>
+        <v>28.18202061281314</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.17852321181648</v>
+        <v>30.28615558308859</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.20238810049801</v>
+        <v>30.45382625992587</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.11253576272517</v>
+        <v>33.25949484389223</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.6161653256781</v>
+        <v>35.62632523582845</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>15.7211067440864</v>
+        <v>6.224582374943811</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.36495116380432</v>
+        <v>26.58332534446722</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.56308214255673</v>
+        <v>32.61338071592094</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>11.48459045597643</v>
+        <v>9.556627216959601</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>22.13395026612034</v>
+        <v>24.99029610895828</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.53972030907967</v>
+        <v>31.50494443387031</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>8.711994932502929</v>
+        <v>3.006756251122841</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>19.78006677396891</v>
+        <v>24.0518565374306</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>23.41434431257511</v>
+        <v>31.37669540454751</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>12.41692314252561</v>
+        <v>2.404226933117872</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>22.65304337798305</v>
+        <v>38.36525481201308</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.02434411756692</v>
+        <v>47.15998880750085</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.14322589615335</v>
+        <v>41.90844903625852</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.13913997426686</v>
+        <v>50.25811698373759</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>30.66684313312162</v>
+        <v>54.59175343626369</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>18.58824787979156</v>
+        <v>10.83296929711021</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.41084317417495</v>
+        <v>46.2768128870331</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>31.63242428093045</v>
+        <v>52.46428569693255</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.24269346261496</v>
+        <v>18.05082750267239</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.90392186756771</v>
+        <v>37.43925826779245</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>32.3314905586817</v>
+        <v>45.51339336162529</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>15.70866329620562</v>
+        <v>10.2173597212062</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.79168390256651</v>
+        <v>37.69354496828323</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>30.45058050770642</v>
+        <v>45.29044387339444</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>19.40981130229993</v>
+        <v>12.55566185844537</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.66130069494824</v>
+        <v>55.81104194158767</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>33.05324574019304</v>
+        <v>67.43719991399944</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>32.3019498856716</v>
+        <v>69.07825316565278</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>36.30738862525244</v>
+        <v>78.22148075158221</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>37.84038505420944</v>
+        <v>85.35312448055562</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.71260639653312</v>
+        <v>26.05974205460219</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>35.54011457746877</v>
+        <v>68.22633276355664</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>38.78019229466445</v>
+        <v>77.44009661590495</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>11.9955897160401</v>
+        <v>-7.838907202369381</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>22.56124027291917</v>
+        <v>10.33568271631045</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.9397679545218</v>
+        <v>10.70098517850271</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>9.390293063877856</v>
+        <v>-21.38025371539207</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>20.36738932533638</v>
+        <v>11.53039807650531</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>23.97392067912218</v>
+        <v>12.4456008109588</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>13.06081153985933</v>
+        <v>-16.08971015882771</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>23.21213102165976</v>
+        <v>30.43061109407619</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.55821097372036</v>
+        <v>28.51335792208959</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.56219660496861</v>
+        <v>28.34802885736444</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.50213362921112</v>
+        <v>31.33152676200773</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.00557758956998</v>
+        <v>31.43722886805897</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>19.01924919339031</v>
+        <v>-2.201863637931648</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.73723249414518</v>
+        <v>27.63763975043016</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.94209269782339</v>
+        <v>29.56497714403712</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>14.85023488767802</v>
+        <v>16.88242653319792</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.58413523719913</v>
+        <v>41.46307903715426</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.99673018044826</v>
+        <v>42.79558279527403</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>12.10447026778706</v>
+        <v>4.695658136756908</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>23.26084506395356</v>
+        <v>37.50290479786146</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>26.90273331967394</v>
+        <v>40.71051046498643</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>15.83083119356541</v>
+        <v>7.824269539156735</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>26.1486350168001</v>
+        <v>57.70889232097183</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.52701343092232</v>
+        <v>60.86497898181857</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.62800402440992</v>
+        <v>59.67399150219835</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>32.65414358985503</v>
+        <v>68.12151748427407</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>34.18124531757606</v>
+        <v>69.13293468375296</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>22.01101268417318</v>
+        <v>23.26506370058501</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>31.9081477949151</v>
+        <v>68.67881613529785</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>35.13560984449127</v>
+        <v>68.9744217810857</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>21.61139111354163</v>
+        <v>23.0358350096109</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>32.35623183624673</v>
+        <v>51.49599315391039</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>35.79133842592545</v>
+        <v>54.9291520537479</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>19.10478342076416</v>
+        <v>8.217196306595714</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.27513325338475</v>
+        <v>47.32732929484679</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>33.94237677394979</v>
+        <v>51.25747187573877</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>22.82727224716878</v>
+        <v>13.94742805039808</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>33.15954468756081</v>
+        <v>71.03220514687344</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>36.55922293754658</v>
+        <v>77.59395923933151</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>35.79025459864931</v>
+        <v>82.23247728050201</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>39.82598939422811</v>
+        <v>91.7988558499424</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>41.35860590628724</v>
+        <v>95.05999167696321</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.13908086952658</v>
+        <v>33.03339920888918</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>39.04049363857634</v>
+        <v>85.47054439562318</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>42.28706010697708</v>
+        <v>88.74781780568115</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>9.769552961046324</v>
+        <v>5.394912375026184</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>20.26771307379375</v>
+        <v>12.22231023515618</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>23.63280242758253</v>
+        <v>14.21882931790545</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>7.158924199627577</v>
+        <v>-4.630918502849976</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>18.06518745053284</v>
+        <v>15.87103851398586</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>21.65722070349374</v>
+        <v>17.24271708465541</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>10.80977919151482</v>
+        <v>-2.034660098379742</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>20.89551432306832</v>
+        <v>29.60378788547313</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.22820797517108</v>
+        <v>29.30594786229613</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.2491830220035</v>
+        <v>31.07756484068081</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>27.16497545889251</v>
+        <v>32.45143533496342</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.66485205444306</v>
+        <v>32.72075472346425</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>16.76098625217909</v>
+        <v>13.32846915725243</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.41865098879134</v>
+        <v>29.3450749741799</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.61161894964694</v>
+        <v>32.13223606082046</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>12.43265925450183</v>
+        <v>2.107201371247402</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>23.09812388194312</v>
+        <v>14.71837642527833</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>26.49799955638304</v>
+        <v>18.74442039299673</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>9.679191079247943</v>
+        <v>-6.139746448162679</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>20.7637596567543</v>
+        <v>13.39719811875496</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.39194465393941</v>
+        <v>18.0816346062169</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>13.38479908239948</v>
+        <v>-6.286497434374706</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>23.63608886714337</v>
+        <v>27.96907219049307</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>27.00181796590311</v>
+        <v>33.80963991142006</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>26.11738307303772</v>
+        <v>30.89737032344938</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>30.11889702746175</v>
+        <v>37.07292385505623</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.64272916759139</v>
+        <v>38.81916170943451</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>19.55572653809077</v>
+        <v>6.465858821379175</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.39169772043637</v>
+        <v>37.01862406697028</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>32.60787875632391</v>
+        <v>38.61084275247215</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>19.27044017790604</v>
+        <v>16.22912513314064</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.94858146666316</v>
+        <v>33.37666519900891</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>33.36989270214711</v>
+        <v>38.64666169833505</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>16.75653983742724</v>
+        <v>4.725530213580118</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>27.85692674558977</v>
+        <v>31.27315193173532</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>31.50928745763029</v>
+        <v>35.8889749888548</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>20.45941020881046</v>
+        <v>8.324222986713796</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>30.72687004329514</v>
+        <v>50.53962531827254</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>34.11282574374248</v>
+        <v>58.91111163298034</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>33.35909732473688</v>
+        <v>62.17757803670314</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>37.37041527763213</v>
+        <v>69.55243597945513</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>38.89926088865867</v>
+        <v>72.94840602277417</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.76209713319734</v>
+        <v>24.99851655022748</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>36.60368790550891</v>
+        <v>62.92704524677227</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>39.83801456064416</v>
+        <v>66.95381881327519</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>6.756739238295101</v>
+        <v>-2.059502625591175</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>17.16550739223603</v>
+        <v>-0.7159451421055216</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>20.50718340036923</v>
+        <v>-1.029370647718945</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.088415754579842</v>
+        <v>-10.91106896368124</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.90151495544733</v>
+        <v>3.300303240074488</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.46848294212601</v>
+        <v>3.244249207867103</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>7.69950139938214</v>
+        <v>-12.39406895233237</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>17.69905123660828</v>
+        <v>12.37497368938709</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.00844264323524</v>
+        <v>9.954290086129152</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>20.02663309811769</v>
+        <v>13.2452625576005</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.91240866375862</v>
+        <v>11.18767556205889</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.40084127843149</v>
+        <v>12.20095860034026</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>13.60295933590506</v>
+        <v>1.361659813500228</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>23.17924986977531</v>
+        <v>11.61569986959934</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.34866571291635</v>
+        <v>12.72860208843678</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>9.495785907146965</v>
+        <v>-1.782801634822601</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>20.07155233100882</v>
+        <v>5.477307041167297</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.44776232900288</v>
+        <v>6.961479727175703</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>6.687215003254771</v>
+        <v>-8.119190276479525</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>17.67826112137703</v>
+        <v>5.61202233919467</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.28111001715881</v>
+        <v>8.585326510197451</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>10.35307092247482</v>
+        <v>-12.36621803913708</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>20.51785307094039</v>
+        <v>15.25520455236863</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.86003539164943</v>
+        <v>18.68293791373513</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.97241364777618</v>
+        <v>17.71534252641125</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.94363032303691</v>
+        <v>20.89455151519109</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.45579066493585</v>
+        <v>22.97108427394339</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>16.47513748595614</v>
+        <v>-1.145601385638724</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>26.2291915060688</v>
+        <v>23.76176802346207</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.42169952043166</v>
+        <v>23.5380225291347</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>16.41375224616267</v>
+        <v>14.48279996497796</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>27.00279452350986</v>
+        <v>26.22630680394137</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>30.40061575594616</v>
+        <v>29.0297532731246</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>13.84415656132547</v>
+        <v>3.990932996717863</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>24.85160292946073</v>
+        <v>24.70463564751335</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.4788208835669</v>
+        <v>27.68853725186414</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>17.50841220792955</v>
+        <v>3.69787933518872</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>27.68990342186139</v>
+        <v>39.17570221994042</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>31.05250543099756</v>
+        <v>45.19035692180576</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>30.29418440295967</v>
+        <v>49.76887666510721</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>34.27545679432217</v>
+        <v>54.14319625951215</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>35.79272870756291</v>
+        <v>58.16828178210416</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>23.76096063872749</v>
+        <v>18.62949285407432</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>33.52119422971576</v>
+        <v>50.75022699810161</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.73204455472153</v>
+        <v>52.99210194641704</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>14.87903765202374</v>
+        <v>20.32476642709658</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.51047759520047</v>
+        <v>32.06356998197872</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.96374543464422</v>
+        <v>34.31601280084813</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>12.30519663205844</v>
+        <v>5.990505753730975</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.34892859550282</v>
+        <v>32.71753772745562</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>27.03409534033379</v>
+        <v>34.53484298246501</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>16.03086322845755</v>
+        <v>12.01706485944728</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>26.24365295613185</v>
+        <v>49.15398141800917</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.66326615879197</v>
+        <v>49.59256447815572</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.68499158855177</v>
+        <v>50.83284241361146</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>32.65183526493235</v>
+        <v>52.91367697213268</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>34.20136183542238</v>
+        <v>54.43823509763907</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>22.10359100095047</v>
+        <v>32.45543787929039</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>31.87719493171794</v>
+        <v>53.56767694381735</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>35.15498816411804</v>
+        <v>58.41706867971088</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>17.68346969323249</v>
+        <v>13.50271461243127</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.48495046825679</v>
+        <v>31.3045159140912</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.97358119899999</v>
+        <v>35.27881884646537</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>14.9625489759347</v>
+        <v>-0.4410450324289847</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.18759348896913</v>
+        <v>24.92098532806817</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.90951541613584</v>
+        <v>29.83636666459227</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>18.74376539175093</v>
+        <v>1.889386836832603</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.12493301214401</v>
+        <v>41.77278139588704</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>32.57812057626502</v>
+        <v>48.24547310544428</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.69518418105121</v>
+        <v>46.17432126218777</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>35.74970457198823</v>
+        <v>53.62893692583016</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>37.32390139821845</v>
+        <v>56.86669593602643</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.03799461228844</v>
+        <v>20.56922089893802</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>34.99340881460274</v>
+        <v>56.70806793264246</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>38.29455650561628</v>
+        <v>60.15207009793879</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>24.25717345662413</v>
+        <v>24.68009278408956</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>35.07061111789527</v>
+        <v>45.92803578541488</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.58210520125226</v>
+        <v>51.98885299767805</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>21.77740393322406</v>
+        <v>9.850776567610314</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>33.01757368903269</v>
+        <v>41.41187111832581</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>36.765246602956</v>
+        <v>46.86899415741955</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.55035486886283</v>
+        <v>15.47832474817755</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>35.946955086259</v>
+        <v>62.23151375505115</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>39.42183558036849</v>
+        <v>72.20349476886692</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>38.66997610186382</v>
+        <v>76.74387514918659</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>42.7340862842133</v>
+        <v>84.85451936138482</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>44.31397028654929</v>
+        <v>90.32727954112069</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>31.97836514995854</v>
+        <v>37.5134537390408</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>41.93887562660868</v>
+        <v>80.20064092269969</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>45.25955238253943</v>
+        <v>86.58574168767761</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>12.36969922528139</v>
+        <v>18.39475190943164</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>22.87850664056828</v>
+        <v>39.62302985830318</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.24685726331731</v>
+        <v>43.91592193495394</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>9.794444362486457</v>
+        <v>9.651195297448101</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>20.71298927333564</v>
+        <v>44.96327160759434</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.30852423324005</v>
+        <v>48.48732600726582</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>13.45385609484529</v>
+        <v>15.31745201236923</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>23.55105403246207</v>
+        <v>63.41973677527422</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.88698080027505</v>
+        <v>65.61299876180685</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.90269664384547</v>
+        <v>64.53750607923924</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.82104277845617</v>
+        <v>69.29157354296488</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.32194482527776</v>
+        <v>71.78626436795794</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>19.39187134518971</v>
+        <v>30.3171322276106</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.06142054287744</v>
+        <v>64.41017360476393</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>32.25784993920568</v>
+        <v>72.44604802237852</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>15.01784348291264</v>
+        <v>11.42826939323409</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.69307413833493</v>
+        <v>37.27808440123222</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.09593487813826</v>
+        <v>43.0432087915686</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>12.30111306064494</v>
+        <v>3.893808784939569</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>23.39702325077154</v>
+        <v>37.04241557913021</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>27.02843050018514</v>
+        <v>43.29592083471532</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>16.01494083303007</v>
+        <v>6.056821705231147</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>26.27682619725732</v>
+        <v>55.5451029393296</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.64553009991292</v>
+        <v>63.34620846402645</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.75625338180902</v>
+        <v>58.34071895808283</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>32.76001961389365</v>
+        <v>68.26112181028203</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>34.28469126086367</v>
+        <v>71.72536546271441</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>22.17259773364219</v>
+        <v>19.25069425421221</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>32.01945730790335</v>
+        <v>66.53746270009113</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>35.23893530122308</v>
+        <v>73.2013255201541</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>21.66806880276256</v>
+        <v>16.02888653171043</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>32.35451955286874</v>
+        <v>45.73013303125894</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.77905699560598</v>
+        <v>53.34961833827789</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>19.18920823075259</v>
+        <v>7.19204481827872</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>30.29941092544352</v>
+        <v>46.60676884238008</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>33.95526178168583</v>
+        <v>53.43591873572846</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>22.89874753659725</v>
+        <v>11.71696038245993</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>33.17538419307161</v>
+        <v>68.40691002222168</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.56455551851848</v>
+        <v>79.34057812803503</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>35.80544301780764</v>
+        <v>80.72019200980772</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>39.81869542561655</v>
+        <v>91.60692916850608</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>41.34869880024636</v>
+        <v>97.95245964554341</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.18841788092922</v>
+        <v>29.17756778532284</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>39.03971579384282</v>
+        <v>83.24172502707445</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>42.27751344217458</v>
+        <v>93.17419081759788</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>17.41505461775869</v>
+        <v>15.11260072932477</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.00668644489221</v>
+        <v>36.84760460965551</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.43029444474517</v>
+        <v>39.52948109285457</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>14.91011777099077</v>
+        <v>6.240569025960344</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.91333199674057</v>
+        <v>44.6538759206813</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.56679778265048</v>
+        <v>47.35785509552214</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>18.62269870178281</v>
+        <v>13.50911979936241</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.79849000813704</v>
+        <v>63.30107395261761</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>32.18876778477376</v>
+        <v>63.99106413036661</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>31.22412764521787</v>
+        <v>61.35268619709932</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>35.1731575988168</v>
+        <v>65.75971256071868</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.71071666122901</v>
+        <v>67.79745013647631</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>24.67073002816996</v>
+        <v>30.95983293279206</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>34.4053727437254</v>
+        <v>63.52462113671122</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>37.65622080155907</v>
+        <v>70.24840797998009</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>20.16603958898484</v>
+        <v>15.27073223545286</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>30.92532780595175</v>
+        <v>42.77894375771892</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.38319393495635</v>
+        <v>46.68426343486989</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>17.51419507907757</v>
+        <v>5.465037849118733</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.69620315595397</v>
+        <v>41.9450213287803</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>32.38524565289543</v>
+        <v>47.34095374833039</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>21.28225826054339</v>
+        <v>9.070822406415704</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>31.62409300555669</v>
+        <v>61.26632238988974</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>35.04684979629997</v>
+        <v>67.54971612806655</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.17785145048476</v>
+        <v>63.82582252138654</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>38.21369970227099</v>
+        <v>73.81774874453772</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>39.77539862459508</v>
+        <v>77.60341441167084</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>27.54993557748603</v>
+        <v>26.95754550849104</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>37.46396257923298</v>
+        <v>74.67897627309894</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.73722771639049</v>
+        <v>79.32029302212429</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>26.55319834877605</v>
+        <v>19.05588331412823</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>37.32177475523284</v>
+        <v>49.51072705241704</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.80297755944617</v>
+        <v>55.85317698545209</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>24.14019617399756</v>
+        <v>9.110620957817947</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>35.3345307312208</v>
+        <v>51.19711826195517</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>39.0498033401836</v>
+        <v>57.49895698724428</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>27.89835182656667</v>
+        <v>15.21164958589323</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>38.2529900301831</v>
+        <v>73.73045673454278</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>41.69789717943004</v>
+        <v>83.90520164215802</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>40.95835919603486</v>
+        <v>86.88040808118423</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>45.00311447002772</v>
+        <v>97.59240596815609</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>46.57072557647324</v>
+        <v>103.5302753851829</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>34.29778954468816</v>
+        <v>36.7667077583789</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>44.21477761623936</v>
+        <v>90.96680674625686</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>47.50795110165047</v>
+        <v>98.556106151691</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>6.17494640999341</v>
+        <v>23.18401106324074</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>17.14524540043982</v>
+        <v>38.81135041281151</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>20.68186670716251</v>
+        <v>40.50667154266129</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>3.338112253933026</v>
+        <v>20.99951748898114</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>14.73401112827396</v>
+        <v>53.548964454239</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>18.50738757374552</v>
+        <v>55.59670552009543</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>7.181168179986223</v>
+        <v>21.11068029264816</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>17.72068278455225</v>
+        <v>63.33292586117712</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>21.22203293980019</v>
+        <v>63.40500368524651</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>20.24368284421401</v>
+        <v>61.92968581535165</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>24.34111407514226</v>
+        <v>65.47322453391338</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.92860389197682</v>
+        <v>68.34155375012803</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>13.52266968372373</v>
+        <v>39.00742565250265</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>23.60516416854383</v>
+        <v>63.1802347336121</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.96384797831601</v>
+        <v>69.62009611816542</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>8.996240496392806</v>
+        <v>23.42687386011322</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.14124958360114</v>
+        <v>45.11149299339375</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>23.71344004394578</v>
+        <v>48.75930144186101</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>6.007020473753951</v>
+        <v>21.99249493450212</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>17.58917562021369</v>
+        <v>52.96335513543967</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>21.39950939837887</v>
+        <v>58.40092153304788</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>9.907826442599317</v>
+        <v>17.61513831171321</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>20.6203213811921</v>
+        <v>62.59876221050241</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.15540911342193</v>
+        <v>68.99501919954899</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>23.27622027595476</v>
+        <v>65.23375881857059</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.46399419668726</v>
+        <v>74.36671042993602</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.07636990255082</v>
+        <v>79.33194031131946</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>16.47753955153537</v>
+        <v>34.80422800909703</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>26.74658682201875</v>
+        <v>74.41708567112552</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>30.12866741908608</v>
+        <v>79.50062088085762</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>15.99380685562032</v>
+        <v>28.02684193262728</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>27.14783382717963</v>
+        <v>52.60639450458341</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.7447782210464</v>
+        <v>58.344361863239</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>13.25706131154237</v>
+        <v>26.05246573654448</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>24.85133059053993</v>
+        <v>62.55997386614781</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.68951192671241</v>
+        <v>68.546701799502</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>17.15034883003234</v>
+        <v>24.48847579423959</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>27.87552161610405</v>
+        <v>75.71420415060085</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>31.4341565475913</v>
+        <v>85.649581655121</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>30.68820926525884</v>
+        <v>88.67440193077555</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.88510196398629</v>
+        <v>98.40932441385091</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.50386475405823</v>
+        <v>105.5954931739941</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>23.853590178495</v>
+        <v>45.26540443160089</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.12511038715721</v>
+        <v>91.10430991257276</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.52839626356441</v>
+        <v>98.83250275915141</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>14.09862276995309</v>
+        <v>15.08463377586664</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.71633706076467</v>
+        <v>36.13419134815415</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.12483087559298</v>
+        <v>39.80475297315182</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>11.530566576779</v>
+        <v>5.360914697897119</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>22.56254156323476</v>
+        <v>40.72831169817867</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.20034461606648</v>
+        <v>44.03618206215269</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>15.2366440271586</v>
+        <v>12.07507142353107</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>25.43889406028149</v>
+        <v>60.62069418575312</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.81416386818792</v>
+        <v>62.24801598501607</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>27.83582132044893</v>
+        <v>62.4288367946529</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>31.79345928129896</v>
+        <v>67.24717073790627</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>33.3167354796125</v>
+        <v>67.29045090196537</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>21.25731196550123</v>
+        <v>24.28697227966051</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.0246249242298</v>
+        <v>59.20547365062795</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>34.26066554452031</v>
+        <v>65.84332676377987</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>16.78887147526697</v>
+        <v>11.93328551367707</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.57373317688948</v>
+        <v>37.9797899124185</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>31.01659678812045</v>
+        <v>42.20925980533853</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>14.0774225316538</v>
+        <v>2.5154900272364</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>25.2875612413262</v>
+        <v>35.96839905002416</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.96109051248912</v>
+        <v>41.15154167176051</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>17.83825925097234</v>
+        <v>5.715808087453741</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.20595326488602</v>
+        <v>55.92129214708019</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>31.61384738451161</v>
+        <v>62.25985642975222</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>30.73144978369756</v>
+        <v>59.49939196409399</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>34.77521656880829</v>
+        <v>69.14175027348686</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>36.32249066756575</v>
+        <v>70.39855682978207</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>24.0794044118456</v>
+        <v>17.02452174583302</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>34.02507094683975</v>
+        <v>65.16800121944421</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>37.28392587883717</v>
+        <v>70.00470714068111</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>23.32693303806781</v>
+        <v>16.46903182572489</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>34.12183124487768</v>
+        <v>45.8854971152992</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>37.58713993619509</v>
+        <v>52.52242822813592</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>20.8551726004603</v>
+        <v>6.405155251609717</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>32.0784027719566</v>
+        <v>45.67892404237013</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.77723460936938</v>
+        <v>51.95868492686334</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>24.60898707973774</v>
+        <v>11.62031643052912</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>34.9902913730669</v>
+        <v>68.54451092026262</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>38.41943217452808</v>
+        <v>78.66550280026179</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>37.66761645958264</v>
+        <v>82.90689517815314</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>41.72080494995068</v>
+        <v>93.49099173045288</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>43.27368143416568</v>
+        <v>97.67490329487519</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>30.98321410554273</v>
+        <v>27.69122491632233</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>40.93239226665227</v>
+        <v>82.30840124447117</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>44.21021223480066</v>
+        <v>90.77386113701682</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>13.41513525935045</v>
+        <v>8.858874564732321</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.80366317295285</v>
+        <v>18.90199118658633</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>27.17047544064546</v>
+        <v>20.86977361797834</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>10.90248580834429</v>
+        <v>-2.751645858424876</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>21.69379512610444</v>
+        <v>23.57159409226221</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.28626335783146</v>
+        <v>24.43051645925182</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>14.52910474449637</v>
+        <v>1.759597045090306</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.50868142974164</v>
+        <v>35.91318574789732</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>27.84236170051703</v>
+        <v>36.70867814745917</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.89163710739631</v>
+        <v>38.03742115382313</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.76681126541505</v>
+        <v>39.56233121094787</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.27998204672334</v>
+        <v>43.42163005107311</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>20.46532216294378</v>
+        <v>15.84660023527924</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.01579158321038</v>
+        <v>35.99811491345714</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>33.21301984418474</v>
+        <v>40.85364481691083</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.15741634234012</v>
+        <v>15.89493204392447</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>26.71266381698976</v>
+        <v>33.74698130427835</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>30.11458533363007</v>
+        <v>38.66885306523331</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>13.50194458878643</v>
+        <v>6.128110214829508</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.47096884311555</v>
+        <v>33.38858208598403</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.09998881422274</v>
+        <v>38.44570224933831</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>17.18281961494587</v>
+        <v>7.42871455314442</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>27.32744389512937</v>
+        <v>46.31582529770829</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>30.69450957367361</v>
+        <v>54.31141311021695</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.83699616918348</v>
+        <v>51.38287719287221</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>33.79794775559721</v>
+        <v>58.65317661113029</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.33542805449594</v>
+        <v>64.87235982477593</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>23.33621325700143</v>
+        <v>20.62729898160591</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>33.06476890235503</v>
+        <v>57.69797578001634</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>36.28541797828746</v>
+        <v>62.87776738359896</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.56860718143564</v>
+        <v>22.5934165748878</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>33.13494482843427</v>
+        <v>43.83899102140636</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.55956126326831</v>
+        <v>50.69676907945878</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>20.1478153180549</v>
+        <v>11.727287192184</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>31.13101132070059</v>
+        <v>44.90332920575521</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.78556843427305</v>
+        <v>50.57030791026143</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>23.82064114618828</v>
+        <v>15.77898531272057</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>33.97978277543267</v>
+        <v>61.36618267685002</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>37.36839839465069</v>
+        <v>72.67898533334467</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>36.63803597933623</v>
+        <v>75.45463284691762</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>40.60807634823663</v>
+        <v>83.38708279753256</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>42.15119107850741</v>
+        <v>91.92083407865842</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>30.10414084244521</v>
+        <v>32.34304347282971</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>39.83709482899756</v>
+        <v>75.92966789713181</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>43.07714599006226</v>
+        <v>83.85709525813211</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>5.611535639965101</v>
+        <v>6.975814583660043</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>16.56734678850313</v>
+        <v>19.79539023246547</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>20.10320182426278</v>
+        <v>22.93671651588504</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>2.769185384013426</v>
+        <v>0.704864302054478</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>14.14996407056788</v>
+        <v>29.68681508767704</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>17.92245738326005</v>
+        <v>33.30026738196533</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>6.608586335441565</v>
+        <v>2.721679479153483</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>17.13407262387074</v>
+        <v>41.30959384709227</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>20.63461166051858</v>
+        <v>43.04281039787232</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>19.66120581692103</v>
+        <v>42.51821730452396</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>23.75371401412001</v>
+        <v>45.50343356495064</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.34159864848325</v>
+        <v>49.42092350825119</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>12.95077042637821</v>
+        <v>20.2923786867281</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.02041491929703</v>
+        <v>42.46347154859426</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>26.37841209513902</v>
+        <v>50.13144775124441</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>8.409974778728099</v>
+        <v>8.797554297366435</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>19.54042868213644</v>
+        <v>27.87455456900763</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>23.11208062067065</v>
+        <v>33.45250956408997</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>5.415190421185965</v>
+        <v>3.343352145561159</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>16.982158757265</v>
+        <v>30.98495387630514</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>20.79186124714251</v>
+        <v>38.49910691995761</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>9.312049458970689</v>
+        <v>1.070771909227108</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>20.01045055940475</v>
+        <v>42.62163704207752</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>23.54496097111676</v>
+        <v>51.16276637499068</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>22.67020581612822</v>
+        <v>47.5364267725523</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.85298635653357</v>
+        <v>56.15621266258889</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.46586795085072</v>
+        <v>62.45410282907194</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>15.88213270073294</v>
+        <v>17.57662762204108</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.13826500356534</v>
+        <v>55.26244683752687</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.51986970631818</v>
+        <v>62.13176623415178</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>15.41858237787817</v>
+        <v>12.42996614516806</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>26.55838324219156</v>
+        <v>34.41992292202663</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.15462181878305</v>
+        <v>42.00154520119339</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>12.67643358685871</v>
+        <v>6.369469477257429</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>24.25585957187056</v>
+        <v>39.58929459879634</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.09323431517444</v>
+        <v>47.57357164871659</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>16.56583768722737</v>
+        <v>6.932905637179307</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>27.27723477515956</v>
+        <v>54.74800538388065</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>30.83513449447946</v>
+        <v>66.74303884455468</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>30.09365526443728</v>
+        <v>69.93596648843577</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>34.28559125130538</v>
+        <v>79.06904860683015</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>35.90476635552913</v>
+        <v>87.59158374313868</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>23.26948410478728</v>
+        <v>27.05723352154569</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>33.52833468201607</v>
+        <v>70.90853698210243</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.93099997261621</v>
+        <v>80.3995615740685</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>17.97878456934146</v>
+        <v>17.9350591319833</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.50534642187011</v>
+        <v>37.17674982338026</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>31.89509742215104</v>
+        <v>38.46383826922995</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>15.53629556702177</v>
+        <v>9.416116601744012</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>26.47092937629921</v>
+        <v>47.81308539131778</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>30.08868301203055</v>
+        <v>47.75284020711864</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>19.21816346780595</v>
+        <v>17.09878981101149</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.33039719133477</v>
+        <v>65.14306709557742</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>32.68723748606264</v>
+        <v>63.8445925228953</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>31.72930469912358</v>
+        <v>63.53050949283814</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>35.65220790662254</v>
+        <v>66.22784092439421</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>37.17181943302054</v>
+        <v>66.65418070796132</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.2032208213943</v>
+        <v>39.03678889523808</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>34.87978779685022</v>
+        <v>63.86815894332086</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>38.09940564429866</v>
+        <v>70.05399854505008</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>20.68556922241342</v>
+        <v>16.16059656433713</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>31.37932718003894</v>
+        <v>41.00840742075603</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.80340558487688</v>
+        <v>43.22950744682309</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>18.09718487519922</v>
+        <v>6.141251270446293</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.21006539500786</v>
+        <v>42.62564395582054</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>32.86349985511007</v>
+        <v>44.94445099521486</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>21.83403582536412</v>
+        <v>10.54654876743654</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>32.11178869441394</v>
+        <v>61.01404099024033</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>35.50120736124867</v>
+        <v>64.82309930590493</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>34.63869872168043</v>
+        <v>62.55077596788108</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>38.64770681496933</v>
+        <v>69.57898425384691</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>40.19141318211236</v>
+        <v>71.4384003960824</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.03860661366355</v>
+        <v>31.16762988966777</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>37.89398436255937</v>
+        <v>71.03758704823819</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>41.13615839715688</v>
+        <v>74.24183971520772</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>27.0806769696974</v>
+        <v>19.10712091953356</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>37.78510854667486</v>
+        <v>47.09130311552163</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>41.23166040802355</v>
+        <v>51.42941844900922</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>24.72765679441564</v>
+        <v>8.91628649223124</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>35.85434002809735</v>
+        <v>50.95678331791252</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>39.53307342116231</v>
+        <v>54.11397937369851</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>28.45676710381559</v>
+        <v>15.91853015420141</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>38.74872789385402</v>
+        <v>72.83555199080674</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>42.15942696662505</v>
+        <v>80.17040847562295</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>41.42650799367498</v>
+        <v>84.90500442848064</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>45.44472626968056</v>
+        <v>92.97899509574053</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>46.99402435992</v>
+        <v>96.62884550418265</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>34.79342716091067</v>
+        <v>40.34491829140048</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>44.65288015189286</v>
+        <v>86.50417563557333</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>47.91417367179748</v>
+        <v>92.85077416914866</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>14.94885278617544</v>
+        <v>14.86445020150937</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>25.57156308490557</v>
+        <v>36.10461262384815</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.9817823309116</v>
+        <v>39.41294813936621</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>12.40560716932493</v>
+        <v>5.686454378169532</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>23.44264603035872</v>
+        <v>41.81244626009341</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>27.08207931297511</v>
+        <v>44.32647919237492</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>16.11371733577919</v>
+        <v>11.46031799669489</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>26.32068327785765</v>
+        <v>60.11208229420127</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.69750997839154</v>
+        <v>61.48134866940531</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>28.72388964869035</v>
+        <v>62.34451161400695</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>32.68276056236254</v>
+        <v>67.36471921282678</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>34.20819109368695</v>
+        <v>67.96493584948944</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>22.14057392767901</v>
+        <v>24.35140945998358</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>31.91148775260124</v>
+        <v>59.96178125218266</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.1493816447434</v>
+        <v>65.28103503599321</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>17.65999614080438</v>
+        <v>13.05589784052372</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.44998600341878</v>
+        <v>39.40332740937161</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>31.89468604706292</v>
+        <v>43.63565633067803</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>14.97283429292171</v>
+        <v>3.66706481159942</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>26.18818466507283</v>
+        <v>37.85606854017625</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.86346851317434</v>
+        <v>42.63275618773675</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>18.73594438086254</v>
+        <v>6.105586678796374</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.10849594204942</v>
+        <v>56.56195731371211</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>32.51805583230477</v>
+        <v>63.03173025032426</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>31.64038613096873</v>
+        <v>61.13286047260156</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>35.68548349471011</v>
+        <v>70.89982212053805</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>37.23501782704833</v>
+        <v>72.8389528350671</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>24.9834065097359</v>
+        <v>18.76308400051771</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.93291716717263</v>
+        <v>67.83579397896365</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>38.19368889577459</v>
+        <v>71.69118085071433</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>24.13963114808481</v>
+        <v>15.26240574868114</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>34.93932834615677</v>
+        <v>44.83212832171803</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>38.40673199469428</v>
+        <v>51.4931158611477</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>21.69103453753014</v>
+        <v>4.910937177897882</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>32.91915277939954</v>
+        <v>44.74686604894937</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.6200051865077</v>
+        <v>50.66214709056597</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.44659312034812</v>
+        <v>9.266978305331964</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>35.83243641487503</v>
+        <v>66.26696933875387</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>39.26350074580476</v>
+        <v>76.53681404566682</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>38.51597867058628</v>
+        <v>81.2278125897313</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>42.57042279076711</v>
+        <v>91.71497094170455</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>44.12557204960933</v>
+        <v>96.55238244365451</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>31.82686687723641</v>
+        <v>26.11500774990965</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>41.7795849611712</v>
+        <v>81.36742165969481</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>45.05958225339008</v>
+        <v>88.83458489452177</v>
       </c>
     </row>
   </sheetData>
